--- a/worksheet.xlsx
+++ b/worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\PycharmProjects\test_instrument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8ADBB0A-30D4-43A1-B4FA-DB52A2C7CC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE04E1-AF8D-4286-8699-8E292E82830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6E4FFD4-D78A-49CB-8E87-BC3C03FACCBA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6E4FFD4-D78A-49CB-8E87-BC3C03FACCBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,28 +42,28 @@
     <t>word</t>
   </si>
   <si>
-    <t>increment</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
     <t>converted:</t>
   </si>
   <si>
-    <t>0a</t>
-  </si>
-  <si>
-    <t>0a40</t>
-  </si>
-  <si>
     <t>unsigned</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>yorigin</t>
+  </si>
+  <si>
+    <t>yincrement</t>
+  </si>
+  <si>
+    <t>yref</t>
+  </si>
+  <si>
+    <t>5a30</t>
   </si>
 </sst>
 </file>
@@ -71,8 +71,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="175" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -111,8 +111,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -431,7 +431,7 @@
   <dimension ref="A4:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -469,13 +469,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>1.5625000000000001E-3</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>6.1035159999999997E-6</v>
+        <v>6.1035159999999999E-5</v>
       </c>
       <c r="D6" s="2">
         <v>1.5625000000000001E-3</v>
@@ -483,13 +483,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>-1.9375E-2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-1.9375E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>-1.9375E-2</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>128</v>
@@ -511,13 +511,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -526,28 +526,28 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>HEX2DEC(B10)</f>
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:D11" si="0">HEX2DEC(C10)</f>
-        <v>2624</v>
+        <f>HEX2DEC(C10)</f>
+        <v>23088</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C11:D11" si="0">HEX2DEC(D10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <f>(B11-B8)*B6-B7</f>
-        <v>-0.16500000000000001</v>
+        <v>1.359375</v>
       </c>
       <c r="C12">
         <f>(C11-C8)*C6-C7</f>
-        <v>-0.16460938630399999</v>
+        <v>-0.59082034880000001</v>
       </c>
       <c r="D12">
         <f>(D11-D8)*D6-D7</f>
